--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A458F2A-8522-4214-A5B5-8CC3DCE7080D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD437C-4BB8-45E5-9B44-722BAC1B91AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Dato</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>Tidsregistrering for Tommy</t>
+  </si>
+  <si>
+    <t>Gør klar og lav brugertest med HØK</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Lav DOM05 beregn markedsføringsbidrag</t>
+  </si>
+  <si>
+    <t>Kundemøde med HØK</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>Lav UC05 beregn markedsføringsbidrag</t>
   </si>
 </sst>
 </file>
@@ -836,7 +854,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1076,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="13">
         <v>43886</v>
@@ -1138,55 +1156,113 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.49305555555555508</v>
+        <v>0.55555555555555514</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.49305555555555508</v>
+        <v>0.59722222222222177</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="13"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.49305555555555508</v>
+        <v>0.61111111111111072</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="13"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1198,7 +1274,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1210,7 +1286,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1222,7 +1298,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1234,7 +1310,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1246,7 +1322,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1258,7 +1334,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1270,7 +1346,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1282,7 +1358,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1294,7 +1370,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1305,7 +1381,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1316,7 +1392,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1327,7 +1403,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1338,7 +1414,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1349,7 +1425,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1360,7 +1436,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1371,7 +1447,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1382,7 +1458,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.49305555555555508</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD437C-4BB8-45E5-9B44-722BAC1B91AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B1E107-992C-4894-8F7A-679A17A82D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Dato</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>Lav UC05 beregn markedsføringsbidrag</t>
+  </si>
+  <si>
+    <t>Review af OC0801 opretAfskrivning</t>
+  </si>
+  <si>
+    <t>Review af UC03 Beregn bruttofortjeneste</t>
+  </si>
+  <si>
+    <t>Review af DOM03 Beregn bruttofortjeneste</t>
+  </si>
+  <si>
+    <t>Skriv opgaver på tavlen</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review af DOM06 </t>
+  </si>
+  <si>
+    <t>Lav DCD0101 og SD0101</t>
   </si>
 </sst>
 </file>
@@ -854,7 +875,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,78 +1287,166 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="13"/>
+      <c r="A16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="13"/>
+        <v>0.62847222222222177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="13"/>
+        <v>0.63194444444444398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.375</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="13"/>
-      <c r="F19" s="18"/>
+        <v>0.6354166666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="13"/>
-      <c r="F20" s="18"/>
+        <v>0.67013888888888862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="13"/>
+        <v>0.67708333333333315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C22" s="13"/>
       <c r="F22" s="18"/>
       <c r="G22" s="5">
@@ -1346,10 +1455,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C23" s="13"/>
       <c r="F23" s="18"/>
       <c r="G23" s="5">
@@ -1358,10 +1467,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C24" s="13"/>
       <c r="F24" s="18"/>
       <c r="G24" s="5">
@@ -1370,10 +1479,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C25" s="13"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1381,10 +1490,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C26" s="13"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1392,10 +1501,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C27" s="13"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1403,10 +1512,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C28" s="13"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1414,10 +1523,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1425,10 +1534,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C30" s="13"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1436,10 +1545,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C31" s="13"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1447,10 +1556,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.62499999999999956</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C32" s="13"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1458,7 +1567,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.62499999999999956</v>
+        <v>0.84374999999999978</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B1E107-992C-4894-8F7A-679A17A82D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB3378-32F1-476D-B19D-ECAEE7ED7A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Dato</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Lav DCD0101 og SD0101</t>
+  </si>
+  <si>
+    <t>Lav STD0101, UT01, UT02, UT03, UT04</t>
+  </si>
+  <si>
+    <t>Arbejd med UT01 id UT010101</t>
   </si>
 </sst>
 </file>
@@ -875,7 +881,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,27 +1453,55 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="13"/>
+      <c r="A22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.84374999999999978</v>
+        <v>0.92708333333333304</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="13"/>
+      <c r="A23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1479,7 +1513,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1490,7 +1524,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1501,7 +1535,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1512,7 +1546,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1523,7 +1557,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1534,7 +1568,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1545,7 +1579,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1556,7 +1590,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1567,7 +1601,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.84374999999999978</v>
+        <v>0.98958333333333304</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
@@ -1642,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB3378-32F1-476D-B19D-ECAEE7ED7A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7BB8B-0F1E-4E8A-A580-3030AC1912D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Dato</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t>Arbejd med UT01 id UT010101</t>
+  </si>
+  <si>
+    <t>Lav SD0104 hentOmsaetning</t>
+  </si>
+  <si>
+    <t>Lav DCD0104 hentOmsatning</t>
+  </si>
+  <si>
+    <t>Review SD0103 og DCD0103</t>
+  </si>
+  <si>
+    <t>Implementering af SD0101 og SD0102</t>
+  </si>
+  <si>
+    <t>Lav unit tests til OC0101</t>
   </si>
 </sst>
 </file>
@@ -880,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,59 +1520,129 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="13"/>
+      <c r="A24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.98958333333333304</v>
+        <v>1.0069444444444442</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="13"/>
+      <c r="A25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.98958333333333304</v>
+        <v>1.020833333333333</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="13"/>
+      <c r="A26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.4548611111111111</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.98958333333333304</v>
+        <v>1.0277777777777775</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="13"/>
+      <c r="A27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2500000000000056E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.98958333333333304</v>
+        <v>1.0902777777777775</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="13"/>
+      <c r="A28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.98958333333333304</v>
+        <v>1.1736111111111107</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1568,7 +1653,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.98958333333333304</v>
+        <v>1.1736111111111107</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1579,7 +1664,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.98958333333333304</v>
+        <v>1.1736111111111107</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1590,7 +1675,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.98958333333333304</v>
+        <v>1.1736111111111107</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1601,7 +1686,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.98958333333333304</v>
+        <v>1.1736111111111107</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7BB8B-0F1E-4E8A-A580-3030AC1912D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5009D18-E500-4E0A-A6E1-135EB3F05220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>Dato</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>Lav unit tests til OC0101</t>
+  </si>
+  <si>
+    <t>Ret SD0104, DCD0104 og implementer rettelser</t>
+  </si>
+  <si>
+    <t>Ret OC0802 angivLineaerAfskrivning</t>
+  </si>
+  <si>
+    <t>Lav SD0804 angivStraksAfskrivning</t>
   </si>
 </sst>
 </file>
@@ -895,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,36 +1655,78 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="13"/>
+      <c r="A29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.40625</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.1736111111111107</v>
+        <v>1.2048611111111107</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="13"/>
+      <c r="A30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.625</v>
+      </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.1736111111111107</v>
+        <v>1.2465277777777772</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="13"/>
+      <c r="A31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.1736111111111107</v>
+        <v>1.2777777777777772</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1686,7 +1737,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.1736111111111107</v>
+        <v>1.2777777777777772</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5009D18-E500-4E0A-A6E1-135EB3F05220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29F9C5-F61B-46BB-A87E-3AB94149713E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Dato</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>Lav SD0804 angivStraksAfskrivning</t>
+  </si>
+  <si>
+    <t>Ret SD0804 angivStraksAfskrivning</t>
+  </si>
+  <si>
+    <t>Lav DCD0804 angivStraksAfskrivning</t>
+  </si>
+  <si>
+    <t>Kundemøde med HØK om UC10, DOM10, ATD10</t>
   </si>
 </sst>
 </file>
@@ -905,7 +914,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1011,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G35" si="0">E4-D4</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1730,59 +1739,127 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="13"/>
+      <c r="A32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.2777777777777772</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+        <v>1.381944444444444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.59375</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.59375</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="13"/>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29F9C5-F61B-46BB-A87E-3AB94149713E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F64BE6-08AD-4F2F-BC21-541E83612773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Dato</t>
   </si>
@@ -55,9 +55,6 @@
     <t>business-Process Analyst</t>
   </si>
   <si>
-    <t>business designer</t>
-  </si>
-  <si>
     <t xml:space="preserve">System Analyst </t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Capsule Designer</t>
   </si>
   <si>
-    <t>Implenter</t>
-  </si>
-  <si>
     <t>integrator</t>
   </si>
   <si>
@@ -106,18 +100,9 @@
     <t>Test Analyst</t>
   </si>
   <si>
-    <t>Test Desinger</t>
-  </si>
-  <si>
     <t>Tester</t>
   </si>
   <si>
-    <t xml:space="preserve">System Adminstrator </t>
-  </si>
-  <si>
-    <t>Techincal Writer</t>
-  </si>
-  <si>
     <t>Graphic Artist</t>
   </si>
   <si>
@@ -275,6 +260,39 @@
   </si>
   <si>
     <t>Kundemøde med HØK om UC10, DOM10, ATD10</t>
+  </si>
+  <si>
+    <t>Ret DCD0804 angivStraksAfskrivning</t>
+  </si>
+  <si>
+    <t>Review SD0802 og DCD0802</t>
+  </si>
+  <si>
+    <t>Lav UI til UC02</t>
+  </si>
+  <si>
+    <t>Implementer system test 0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementer system test 0103 </t>
+  </si>
+  <si>
+    <t>Test Designer</t>
+  </si>
+  <si>
+    <t>Implementer</t>
+  </si>
+  <si>
+    <t>Business-Process Analyst</t>
+  </si>
+  <si>
+    <t>Business designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Administrator </t>
+  </si>
+  <si>
+    <t>Techinical Writer</t>
   </si>
 </sst>
 </file>
@@ -913,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A12" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -942,7 +960,7 @@
     </row>
     <row r="2" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -951,27 +969,27 @@
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="20">
         <v>43881</v>
@@ -993,10 +1011,10 @@
     </row>
     <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>43885</v>
@@ -1008,10 +1026,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G35" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G40" si="0">E4-D4</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1021,10 +1039,10 @@
     </row>
     <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13">
         <v>43885</v>
@@ -1036,7 +1054,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
@@ -1049,10 +1067,10 @@
     </row>
     <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="13">
         <v>43885</v>
@@ -1064,7 +1082,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
@@ -1077,10 +1095,10 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13">
         <v>43885</v>
@@ -1092,7 +1110,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
@@ -1105,7 +1123,7 @@
     </row>
     <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>5</v>
@@ -1120,7 +1138,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -1133,10 +1151,10 @@
     </row>
     <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="13">
         <v>43886</v>
@@ -1148,7 +1166,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
@@ -1161,10 +1179,10 @@
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="13">
         <v>43886</v>
@@ -1176,7 +1194,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
@@ -1189,10 +1207,10 @@
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13">
         <v>43886</v>
@@ -1204,7 +1222,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
@@ -1217,10 +1235,10 @@
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13">
         <v>43887</v>
@@ -1243,10 +1261,10 @@
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="13">
         <v>43887</v>
@@ -1258,7 +1276,7 @@
         <v>0.5625</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
@@ -1271,10 +1289,10 @@
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="13">
         <v>43887</v>
@@ -1286,7 +1304,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
@@ -1299,10 +1317,10 @@
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C15" s="13">
         <v>43887</v>
@@ -1314,7 +1332,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
@@ -1327,10 +1345,10 @@
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13">
         <v>43888</v>
@@ -1353,10 +1371,10 @@
     </row>
     <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="13">
         <v>43888</v>
@@ -1379,10 +1397,10 @@
     </row>
     <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13">
         <v>43888</v>
@@ -1405,10 +1423,10 @@
     </row>
     <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="13">
         <v>43888</v>
@@ -1420,7 +1438,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
@@ -1433,10 +1451,10 @@
     </row>
     <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="13">
         <v>43888</v>
@@ -1448,7 +1466,7 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
@@ -1461,10 +1479,10 @@
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="13">
         <v>43888</v>
@@ -1487,10 +1505,10 @@
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C22" s="13">
         <v>43889</v>
@@ -1513,10 +1531,10 @@
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C23" s="13">
         <v>43889</v>
@@ -1539,10 +1557,10 @@
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="13">
         <v>43892</v>
@@ -1565,10 +1583,10 @@
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="13">
         <v>43892</v>
@@ -1590,10 +1608,10 @@
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="13">
         <v>43892</v>
@@ -1615,10 +1633,10 @@
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C27" s="13">
         <v>43892</v>
@@ -1640,10 +1658,10 @@
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="13">
         <v>43892</v>
@@ -1665,10 +1683,10 @@
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="13">
         <v>43893</v>
@@ -1690,10 +1708,10 @@
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="13">
         <v>43893</v>
@@ -1715,10 +1733,10 @@
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="13">
         <v>43893</v>
@@ -1740,10 +1758,10 @@
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="13">
         <v>43894</v>
@@ -1765,10 +1783,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="13">
         <v>43894</v>
@@ -1786,10 +1804,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="13">
         <v>43894</v>
@@ -1807,10 +1825,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="13">
         <v>43894</v>
@@ -1827,19 +1845,109 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="13"/>
+      <c r="A36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="13"/>
+      <c r="A37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="13"/>
+      <c r="A38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="13"/>
+      <c r="A39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="13"/>
+      <c r="A40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
@@ -1889,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1928,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1944,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1960,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1968,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1976,7 +2084,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1984,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1992,7 +2100,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2000,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2016,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2024,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2032,7 +2140,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2040,7 +2148,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2048,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2056,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2064,7 +2172,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2072,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2080,7 +2188,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2088,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2096,7 +2204,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2104,7 +2212,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2112,7 +2220,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2120,7 +2228,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2128,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2136,7 +2244,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2144,7 +2252,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F64BE6-08AD-4F2F-BC21-541E83612773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9A470-2284-47D5-8E17-8C376234DF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Dato</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>Techinical Writer</t>
+  </si>
+  <si>
+    <t>Lav UTD07 Salgspris</t>
+  </si>
+  <si>
+    <t>Opkoble Omsaetning ui til model</t>
+  </si>
+  <si>
+    <t>Opsæt HoeKulator projekt til at bruge to sourcemapper</t>
+  </si>
+  <si>
+    <t>Koble AfsætningUI sammen med GrundUI</t>
+  </si>
+  <si>
+    <t>Opdatere AfsætningUI</t>
   </si>
 </sst>
 </file>
@@ -931,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1044,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G40" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G45" si="0">E4-D4</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1950,19 +1965,109 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="13"/>
+      <c r="A41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="13"/>
+      <c r="A42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333326</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C43" s="13"/>
+      <c r="A43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="13"/>
+      <c r="A44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="13"/>
+      <c r="A45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13194444444444442</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" s="13"/>
@@ -1997,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
+++ b/08 Project Management/Tidsregistrering/PM17 Tidsregistrering for Tommy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Documents\EASJ\Systemudvikling\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9A470-2284-47D5-8E17-8C376234DF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587EC0C-17F8-4754-A1D7-5E1B0002B242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>Dato</t>
   </si>
@@ -307,7 +307,40 @@
     <t>Koble AfsætningUI sammen med GrundUI</t>
   </si>
   <si>
-    <t>Opdatere AfsætningUI</t>
+    <t>Implementer Afskrivning</t>
+  </si>
+  <si>
+    <t>OpdatererAfskrivningUi</t>
+  </si>
+  <si>
+    <t>Opdatere AfskrivningUI</t>
+  </si>
+  <si>
+    <t>Tilføj scroll til grund UI</t>
+  </si>
+  <si>
+    <t>Reviewer AD09</t>
+  </si>
+  <si>
+    <t>Lav SSD09</t>
+  </si>
+  <si>
+    <t>Lav OC0903</t>
+  </si>
+  <si>
+    <t>Lav SD09</t>
+  </si>
+  <si>
+    <t>Lav DCD09</t>
+  </si>
+  <si>
+    <t>Implementer UC09</t>
+  </si>
+  <si>
+    <t>Lav SSD10</t>
+  </si>
+  <si>
+    <t>Lav OC10</t>
   </si>
 </sst>
 </file>
@@ -944,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G45" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G56" si="0">E4-D4</f>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="H4" s="1">
@@ -2050,10 +2083,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C45" s="13">
         <v>43899</v>
@@ -2070,10 +2103,232 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="13"/>
+      <c r="A46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="13">
+        <v>43900</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="13"/>
+      <c r="A47" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="13">
+        <v>43900</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="E54" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="20">
+        <v>43901</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
